--- a/src/main/resources/Datas/Negative Datas.xlsx
+++ b/src/main/resources/Datas/Negative Datas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
@@ -1039,21 +1039,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1063,7 +1053,6 @@
     <hyperlink ref="B3" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
     <hyperlink ref="B4" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
     <hyperlink ref="B5" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
-    <hyperlink ref="B7" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/Datas/Negative Datas.xlsx
+++ b/src/main/resources/Datas/Negative Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t>Test Description</t>
+  </si>
   <si>
     <t xml:space="preserve">Username </t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Correct Username &amp; Wrong Password</t>
   </si>
   <si>
     <t>Vendoadmin</t>
@@ -36,10 +42,19 @@
     <t>Vendo@2023</t>
   </si>
   <si>
+    <t>Wrong Username &amp; Correct Password</t>
+  </si>
+  <si>
     <t>Vendoadmii</t>
   </si>
   <si>
     <t>Vendo@2022</t>
+  </si>
+  <si>
+    <t>Wrong Username &amp; Wrong Password</t>
+  </si>
+  <si>
+    <t>Correct Username &amp; Correct Password</t>
   </si>
 </sst>
 </file>
@@ -48,8 +63,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -73,6 +88,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,15 +125,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +180,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -110,110 +225,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,91 +247,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,73 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +438,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,11 +467,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,51 +516,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -523,151 +529,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,64 +1010,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="37.3142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
-    <hyperlink ref="B3" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
-    <hyperlink ref="B4" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
-    <hyperlink ref="B5" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="C2" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
+    <hyperlink ref="C3" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="C4" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
+    <hyperlink ref="C5" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/Datas/Negative Datas.xlsx
+++ b/src/main/resources/Datas/Negative Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="19815" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>Test Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Correct Username &amp; Wrong Password</t>
   </si>
   <si>
     <t>Vendoadmin</t>
@@ -42,20 +36,11 @@
     <t>Vendo@2023</t>
   </si>
   <si>
-    <t>Wrong Username &amp; Correct Password</t>
-  </si>
-  <si>
     <t>Vendoadmii</t>
   </si>
   <si>
     <t>Vendo@2022</t>
   </si>
-  <si>
-    <t>Wrong Username &amp; Wrong Password</t>
-  </si>
-  <si>
-    <t>Correct Username &amp; Correct Password</t>
-  </si>
 </sst>
 </file>
 
@@ -63,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,16 +73,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,37 +90,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +104,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -165,8 +111,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +182,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,22 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +232,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,139 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +423,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,13 +450,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,26 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,157 +515,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,80 +995,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.3142857142857" customWidth="1"/>
-    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
-    <hyperlink ref="C3" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
-    <hyperlink ref="C4" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
-    <hyperlink ref="C5" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="B2" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
+    <hyperlink ref="B3" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="B4" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
+    <hyperlink ref="B5" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1096,7 +1065,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/src/main/resources/Datas/Negative Datas.xlsx
+++ b/src/main/resources/Datas/Negative Datas.xlsx
@@ -24,10 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Username </t>
+    <t>USERNAME</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>PASSWORD</t>
   </si>
   <si>
     <t>Vendoadmin</t>
@@ -47,8 +47,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -73,8 +73,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -82,14 +119,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,115 +187,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,8 +429,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,50 +450,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,159 +478,196 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
@@ -1046,6 +1046,42 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/Datas/Negative Datas.xlsx
+++ b/src/main/resources/Datas/Negative Datas.xlsx
@@ -33,13 +33,13 @@
     <t>Vendoadmin</t>
   </si>
   <si>
-    <t>Vendo@2023</t>
-  </si>
-  <si>
     <t>Vendoadmii</t>
   </si>
   <si>
     <t>Vendo@2022</t>
+  </si>
+  <si>
+    <t>Vendo@2023</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -74,62 +74,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,8 +134,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,46 +158,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +232,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,169 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,42 +435,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -500,21 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -523,151 +482,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E7" sqref="A2 G11 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1019,24 +1019,24 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1085,10 +1085,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
-    <hyperlink ref="B3" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
-    <hyperlink ref="B4" r:id="rId1" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
-    <hyperlink ref="B5" r:id="rId2" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="B5" r:id="rId1" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="B3" r:id="rId1" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="B4" r:id="rId2" display="Vendo@2023" tooltip="mailto:Vendo@2023"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/Datas/Negative Datas.xlsx
+++ b/src/main/resources/Datas/Negative Datas.xlsx
@@ -48,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,32 +87,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,8 +111,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,21 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -180,30 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,8 +429,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,62 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,148 +526,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A2 G11 E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
